--- a/projeto/clientes.xlsx
+++ b/projeto/clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruans\OneDrive\Documentos\Python Scripts\projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70BC8AF-F030-4B5F-83DC-B2919BB4911E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B96DA0-E060-41CA-B142-58AD8D4559B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,25 +27,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>telefone</t>
-  </si>
-  <si>
-    <t>Isabela</t>
-  </si>
-  <si>
-    <t>Alexandre</t>
-  </si>
-  <si>
-    <t>Leila</t>
-  </si>
-  <si>
-    <t>Marcos</t>
-  </si>
-  <si>
-    <t>Liliane</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>person1</t>
+  </si>
+  <si>
+    <t>person2</t>
+  </si>
+  <si>
+    <t>person3</t>
+  </si>
+  <si>
+    <t>person4</t>
+  </si>
+  <si>
+    <t>person5</t>
   </si>
 </sst>
 </file>
@@ -55,7 +55,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -74,6 +74,12 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -445,7 +451,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -466,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>5511969202617</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -475,7 +481,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>5511994064400</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -484,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>5511941717605</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -493,7 +499,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>5511971562805</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -502,10 +508,11 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>5511942909148</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
